--- a/Excel/Chapter/Chapter1@p.xlsx
+++ b/Excel/Chapter/Chapter1@p.xlsx
@@ -1,25 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\Chapter\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="809"/>
+    <workbookView windowWidth="26880" windowHeight="12684" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t>cs</t>
   </si>
@@ -108,6 +116,9 @@
     <t>Bg</t>
   </si>
   <si>
+    <t>UIGames/UICommon/DiscreteImages/bg_05.png</t>
+  </si>
+  <si>
     <t>FadeIn</t>
   </si>
   <si>
@@ -117,62 +128,47 @@
     <t>MessageWindowMiddle</t>
   </si>
   <si>
+    <t>&lt;size=55&gt;&lt;color=#00BFFF&gt;◆ 核心玩法 ◆&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
     <t>MessageWindow</t>
   </si>
   <si>
+    <t>&lt;color=#FF6B6B&gt;【积分系统】&lt;/color&gt;\n1. 刷题获得学力积分\n2. 积分兑换自走棋英雄</t>
+  </si>
+  <si>
     <t>Input</t>
   </si>
   <si>
-    <t>FadeOut</t>
-  </si>
-  <si>
-    <t>CharacterOn</t>
-  </si>
-  <si>
-    <t>BgOff</t>
+    <t>&lt;color=#4ECDC4&gt;【对战流程】&lt;/color&gt;\n• 准备阶段：用金币购买/升级英雄（最高5阶）\n• 战斗阶段：自动战斗至一方全灭</t>
+  </si>
+  <si>
+    <t>&lt;color=#FFD700&gt;【胜负规则】&lt;/color&gt;\n• 初始血量：50点\n• 败方扣血=存活英雄数×2\n• 血量归零游戏结束</t>
+  </si>
+  <si>
+    <t>&lt;color=#A78BFA&gt;【羁绊系统】&lt;/color&gt;\n• 上阵同科目英雄激活加成\n 例：3数学→公式推导速度+30%</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF7F50&gt;※ 注意事项 ※&lt;/color&gt;\n1. 未上阵英雄自动判负\n2. 每回合获得基础金币+连胜奖励</t>
+  </si>
+  <si>
+    <t>HideMessageWindow</t>
   </si>
   <si>
     <t>EndScenario</t>
-  </si>
-  <si>
-    <t>Images/CompeteHall</t>
-  </si>
-  <si>
-    <t>Images/CodeBattle</t>
-  </si>
-  <si>
-    <t>Chess_HashTable</t>
-  </si>
-  <si>
-    <t>【2024年6月10日 计算机学院竞赛大厅】</t>
-  </si>
-  <si>
-    <t>收到竞赛系统通知：\n&lt;color=#2B579A&gt;「第7届算法实践赛」&lt;/color&gt;现在开始，初始积分100</t>
-  </si>
-  <si>
-    <t>规则说明：\n1. 每解出1题获得30积分\n2. 积分可兑换对战棋子（数组/图论/动态规划类型）</t>
-  </si>
-  <si>
-    <t>系统匹配到对手：2019级冠军队伍（当前段位：钻石Ⅲ）</t>
-  </si>
-  <si>
-    <t>1.开始解题\t2.查看棋子商店</t>
-  </si>
-  <si>
-    <t>兑换「哈希表骑士」消耗50积分\n特性：快速查找（对战回合+1次操作机会）</t>
-  </si>
-  <si>
-    <t>对战阶段：\n我方棋子：【哈希表骑士】LV1\n敌方棋子：【BFS先锋】LV2</t>
-  </si>
-  <si>
-    <t>剩余积分50，选择：\n1.继续解题\t2.升级现有棋子</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +180,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -202,6 +204,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="方正大黑体_GBK"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -211,30 +219,151 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +376,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -256,40 +571,341 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -547,38 +1163,38 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8796296296296" style="1" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.8796296296296" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="21.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.8796296296296" style="1" customWidth="1"/>
     <col min="13" max="13" width="24.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="26.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="52.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="52.875" customWidth="1"/>
+    <col min="14" max="14" width="26.8796296296296" style="1" customWidth="1"/>
+    <col min="15" max="15" width="52.8796296296296" style="1" customWidth="1"/>
+    <col min="16" max="16" width="52.8796296296296" customWidth="1"/>
     <col min="17" max="17" width="26.75" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5">
+    <row r="1" ht="15.6" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +1206,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="16.5">
+    <row r="2" ht="15.6" spans="1:8">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -600,7 +1216,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5">
+    <row r="3" ht="16.2" spans="1:16">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
@@ -642,7 +1258,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
+    <row r="4" ht="16.2" spans="1:16">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
@@ -688,7 +1304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="16.5">
+    <row r="5" ht="16.2" spans="1:16">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -734,256 +1350,253 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="C6">
+    <row r="6" ht="16" customHeight="1" spans="3:15">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" ht="15" spans="3:15">
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15.15" spans="3:16">
+      <c r="C8" s="5">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="P8"/>
+    </row>
+    <row r="9" ht="30.75" spans="3:16">
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="30.75" spans="3:16">
+      <c r="C10" s="6">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="45.75" spans="3:16">
+      <c r="C11" s="5">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" ht="45.75" spans="3:16">
+      <c r="C12" s="4">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="30.75" spans="3:16">
+      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="30.75" spans="3:16">
+      <c r="C14" s="5">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" spans="3:16">
+      <c r="C15" s="4">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" ht="15" spans="3:16">
+      <c r="C16" s="6">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" t="s">
-        <v>32</v>
-      </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="5"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O11" t="s">
-        <v>44</v>
-      </c>
-      <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13" t="s">
-        <v>32</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="5"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15" s="5"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="C16">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
     </row>
     <row r="17" spans="3:16">
-      <c r="C17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
+      <c r="C17"/>
+      <c r="D17"/>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
@@ -993,18 +1606,12 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="5"/>
-    </row>
-    <row r="18" spans="3:16">
-      <c r="C18">
-        <v>13</v>
-      </c>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" s="7"/>
+    </row>
+    <row r="18" ht="17.4" spans="3:16">
+      <c r="C18"/>
       <c r="D18"/>
       <c r="E18"/>
       <c r="F18"/>
@@ -1012,33 +1619,18 @@
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
+      <c r="L18" s="9"/>
       <c r="M18"/>
-      <c r="N18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" t="s">
-        <v>48</v>
-      </c>
-      <c r="P18" s="5"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" s="7"/>
     </row>
     <row r="19" spans="3:16">
-      <c r="C19">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1047,18 +1639,12 @@
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
-      <c r="P19" s="5"/>
-    </row>
-    <row r="20" spans="3:16">
-      <c r="C20">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="3:16">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
@@ -1069,15 +1655,11 @@
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
-      <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="3:16" ht="15" customHeight="1">
-      <c r="C21">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>36</v>
-      </c>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="3:16">
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
@@ -1089,92 +1671,72 @@
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" s="7"/>
-    </row>
-    <row r="22" spans="3:16" ht="15" customHeight="1">
-      <c r="C22">
-        <v>17</v>
-      </c>
-      <c r="D22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22" s="7"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="23" spans="3:16">
-      <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-    </row>
-    <row r="24" spans="3:16">
-      <c r="C24" s="4"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-    </row>
-    <row r="25" spans="3:16">
-      <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-    </row>
-    <row r="26" spans="3:16">
-      <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="3:15">
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="3:15">
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="3:15">
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/Chapter/Chapter1@p.xlsx
+++ b/Excel/Chapter/Chapter1@p.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>cs</t>
   </si>
@@ -116,7 +116,7 @@
     <t>Bg</t>
   </si>
   <si>
-    <t>UIGames/UICommon/DiscreteImages/bg_05.png</t>
+    <t>UIGames/Background/campus_001.png</t>
   </si>
   <si>
     <t>FadeIn</t>
@@ -125,31 +125,79 @@
     <t>ShowMessageWindow</t>
   </si>
   <si>
+    <t>Page</t>
+  </si>
+  <si>
     <t>MessageWindowMiddle</t>
   </si>
   <si>
-    <t>&lt;size=55&gt;&lt;color=#00BFFF&gt;◆ 核心玩法 ◆&lt;/color&gt;&lt;/size&gt;</t>
+    <t>&lt;b&gt;&lt;size=60&gt;【智慧校园争霸赛  开启】</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;&lt;size=60&gt;【智慧校园争霸赛  新手向导】</t>
+  </si>
+  <si>
+    <t>br</t>
   </si>
   <si>
     <t>MessageWindow</t>
   </si>
   <si>
-    <t>&lt;color=#FF6B6B&gt;【积分系统】&lt;/color&gt;\n1. 刷题获得学力积分\n2. 积分兑换自走棋英雄</t>
+    <t>同学你好！欢迎来到&lt;span color=#FFD700&gt;智慧校园争霸赛&lt;/span&gt;！</t>
+  </si>
+  <si>
+    <t>在这里，&lt;b&gt;每解出1道题&lt;/b&gt;就能获得&lt;b&gt;知识晶片&lt;/b&gt;🪙</t>
   </si>
   <si>
     <t>Input</t>
   </si>
   <si>
-    <t>&lt;color=#4ECDC4&gt;【对战流程】&lt;/color&gt;\n• 准备阶段：用金币购买/升级英雄（最高5阶）\n• 战斗阶段：自动战斗至一方全灭</t>
-  </si>
-  <si>
-    <t>&lt;color=#FFD700&gt;【胜负规则】&lt;/color&gt;\n• 初始血量：50点\n• 败方扣血=存活英雄数×2\n• 血量归零游戏结束</t>
-  </si>
-  <si>
-    <t>&lt;color=#A78BFA&gt;【羁绊系统】&lt;/color&gt;\n• 上阵同科目英雄激活加成\n 例：3数学→公式推导速度+30%</t>
-  </si>
-  <si>
-    <t>&lt;color=#FF7F50&gt;※ 注意事项 ※&lt;/color&gt;\n1. 未上阵英雄自动判负\n2. 每回合获得基础金币+连胜奖励</t>
+    <t>用晶片召唤&lt;b&gt;学科英雄&lt;/b&gt;：</t>
+  </si>
+  <si>
+    <t>🧮&lt;color=#00FF00&gt;数学骑士&lt;/color&gt; 📖&lt;color=#FF69B4&gt;文学法师&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>🧪&lt;color=#4169E1&gt;实验狂人&lt;/color&gt; 🔭&lt;color=#FF4500&gt;物理先知&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;战斗规则解密：&lt;/b&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>1. 初始50点&lt;b&gt;精神力&lt;/b&gt; ❤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 每回合自动获得金币</t>
+    </r>
+  </si>
+  <si>
+    <t>2. 用金币&lt;b&gt;升级英雄池&lt;/b&gt; ★ 解锁高阶学科英雄</t>
+  </si>
+  <si>
+    <t>3. &lt;color=#FF1493&gt;羁绊组合&lt;/color&gt;激活隐藏属性！</t>
+  </si>
+  <si>
+    <t>4. 战斗阶段结束时，存活英雄越多 ➔ 对手精神力下降越多 💥</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;现在立刻：&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>① 去&lt;b&gt;题库秘境&lt;/b&gt;刷题赚晶片 ➔ ② 组建你的&lt;b&gt;超能学霸战队&lt;/b&gt;！</t>
   </si>
   <si>
     <t>HideMessageWindow</t>
@@ -168,7 +216,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,36 +237,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11.25"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="方正大黑体_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="方正大黑体_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="方正大黑体_GBK"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -362,6 +380,16 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.25"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -563,20 +591,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -698,157 +717,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1169,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1350,389 +1356,451 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1" spans="3:15">
-      <c r="C6" s="4">
+    <row r="6" ht="16" customHeight="1" spans="3:16">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" ht="15" spans="3:15">
-      <c r="C7" s="6">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="3:16">
+      <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.15" spans="3:16">
-      <c r="C8" s="5">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="3:16">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="P8"/>
-    </row>
-    <row r="9" ht="30.75" spans="3:16">
-      <c r="C9" s="4">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" ht="30.75" spans="3:16">
-      <c r="C10" s="6">
-        <v>5</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" ht="45.75" spans="3:16">
-      <c r="C11" s="5">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="3:16">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="O15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" ht="45.75" spans="3:16">
-      <c r="C12" s="4">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6" t="s">
+      <c r="O16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" ht="30.75" spans="3:16">
-      <c r="C13" s="6">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" ht="30.75" spans="3:16">
-      <c r="C14" s="5">
-        <v>9</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6" t="s">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="3:16">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" spans="3:16">
-      <c r="C15" s="4">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-    </row>
-    <row r="16" ht="15" spans="3:16">
-      <c r="C16" s="6">
-        <v>11</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="3:16">
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" ht="17.4" spans="3:16">
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="L18" s="9"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="3:16">
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="3:16">
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20" s="10"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="3:16">
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="23" spans="3:16">
-      <c r="C23" s="5"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-    </row>
-    <row r="24" spans="3:15">
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="3:15">
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="3:15">
-      <c r="C26" s="5"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="3:16">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="16:16">
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="16:16">
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="16:16">
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="16:16">
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="16:16">
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="16:16">
+      <c r="P28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/Chapter/Chapter1@p.xlsx
+++ b/Excel/Chapter/Chapter1@p.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>cs</t>
   </si>
@@ -125,33 +125,24 @@
     <t>ShowMessageWindow</t>
   </si>
   <si>
-    <t>Page</t>
-  </si>
-  <si>
     <t>MessageWindowMiddle</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;size=60&gt;【智慧校园争霸赛  开启】</t>
   </si>
   <si>
-    <t>&lt;b&gt;&lt;size=60&gt;【智慧校园争霸赛  新手向导】</t>
-  </si>
-  <si>
     <t>br</t>
   </si>
   <si>
     <t>MessageWindow</t>
   </si>
   <si>
-    <t>同学你好！欢迎来到&lt;span color=#FFD700&gt;智慧校园争霸赛&lt;/span&gt;！</t>
+    <t>同学你好！欢迎来到&lt;智慧校园争霸赛&gt;！</t>
   </si>
   <si>
     <t>在这里，&lt;b&gt;每解出1道题&lt;/b&gt;就能获得&lt;b&gt;知识晶片&lt;/b&gt;🪙</t>
   </si>
   <si>
-    <t>Input</t>
-  </si>
-  <si>
     <t>用晶片召唤&lt;b&gt;学科英雄&lt;/b&gt;：</t>
   </si>
   <si>
@@ -165,6 +156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. 初始50点&lt;b&gt;精神力&lt;/b&gt; ❤</t>
     </r>
     <r>
@@ -198,6 +196,9 @@
   </si>
   <si>
     <t>① 去&lt;b&gt;题库秘境&lt;/b&gt;刷题赚晶片 ➔ ② 组建你的&lt;b&gt;超能学霸战队&lt;/b&gt;！</t>
+  </si>
+  <si>
+    <t>FadeOut</t>
   </si>
   <si>
     <t>HideMessageWindow</t>
@@ -1177,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1416,18 +1417,16 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O8" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -1443,17 +1442,17 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="3:16">
@@ -1469,17 +1468,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="P10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -1495,17 +1494,17 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -1521,17 +1520,16 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="1"/>
+        <v>34</v>
+      </c>
       <c r="N12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -1546,18 +1544,14 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -1573,17 +1567,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" ht="15" spans="3:16">
@@ -1599,17 +1593,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -1625,17 +1619,17 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="3:16">
@@ -1651,17 +1645,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -1676,18 +1670,16 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="3:16">
@@ -1703,43 +1695,31 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1" spans="3:16">
       <c r="C20" s="1">
         <v>15</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1" spans="3:16">
@@ -1747,7 +1727,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1755,7 +1735,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1769,14 +1749,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="1">
+        <v>0.5</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1784,7 +1766,10 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="16:16">
+    <row r="23" spans="4:16">
+      <c r="D23" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="16:16">

--- a/Excel/Chapter/Chapter1@p.xlsx
+++ b/Excel/Chapter/Chapter1@p.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,9 +778,6 @@
       <c r="E6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
